--- a/Financial_Sample2.xlsx
+++ b/Financial_Sample2.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q723"/>
+  <dimension ref="A1:Q734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43472,6 +43472,237 @@
         <v>377280942.26</v>
       </c>
     </row>
+    <row r="724">
+      <c r="A724" t="inlineStr"/>
+      <c r="B724" t="inlineStr"/>
+      <c r="C724" t="inlineStr"/>
+      <c r="D724" t="inlineStr"/>
+      <c r="E724" t="inlineStr"/>
+      <c r="F724" t="inlineStr"/>
+      <c r="G724" t="inlineStr"/>
+      <c r="H724" t="inlineStr"/>
+      <c r="I724" t="inlineStr"/>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
+      <c r="L724" t="inlineStr"/>
+      <c r="M724" t="inlineStr"/>
+      <c r="N724" t="inlineStr"/>
+      <c r="O724" t="inlineStr"/>
+      <c r="P724" t="inlineStr"/>
+      <c r="Q724" t="n">
+        <v>1125806</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr"/>
+      <c r="B725" t="inlineStr"/>
+      <c r="C725" t="inlineStr"/>
+      <c r="D725" t="inlineStr"/>
+      <c r="E725" t="inlineStr"/>
+      <c r="F725" t="inlineStr"/>
+      <c r="G725" t="inlineStr"/>
+      <c r="H725" t="inlineStr"/>
+      <c r="I725" t="inlineStr"/>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
+      <c r="L725" t="inlineStr"/>
+      <c r="M725" t="inlineStr"/>
+      <c r="N725" t="inlineStr"/>
+      <c r="O725" t="inlineStr"/>
+      <c r="P725" t="inlineStr"/>
+      <c r="Q725" t="n">
+        <v>67534</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr"/>
+      <c r="B726" t="inlineStr"/>
+      <c r="C726" t="inlineStr"/>
+      <c r="D726" t="inlineStr"/>
+      <c r="E726" t="inlineStr"/>
+      <c r="F726" t="inlineStr"/>
+      <c r="G726" t="inlineStr"/>
+      <c r="H726" t="inlineStr"/>
+      <c r="I726" t="inlineStr"/>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
+      <c r="L726" t="inlineStr"/>
+      <c r="M726" t="inlineStr"/>
+      <c r="N726" t="inlineStr"/>
+      <c r="O726" t="inlineStr"/>
+      <c r="P726" t="inlineStr"/>
+      <c r="Q726" t="n">
+        <v>82900</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr"/>
+      <c r="B727" t="inlineStr"/>
+      <c r="C727" t="inlineStr"/>
+      <c r="D727" t="inlineStr"/>
+      <c r="E727" t="inlineStr"/>
+      <c r="F727" t="inlineStr"/>
+      <c r="G727" t="inlineStr"/>
+      <c r="H727" t="inlineStr"/>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
+      <c r="L727" t="inlineStr"/>
+      <c r="M727" t="inlineStr"/>
+      <c r="N727" t="inlineStr"/>
+      <c r="O727" t="inlineStr"/>
+      <c r="P727" t="inlineStr"/>
+      <c r="Q727" t="n">
+        <v>127931598.5</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr"/>
+      <c r="B728" t="inlineStr"/>
+      <c r="C728" t="inlineStr"/>
+      <c r="D728" t="inlineStr"/>
+      <c r="E728" t="inlineStr"/>
+      <c r="F728" t="inlineStr"/>
+      <c r="G728" t="inlineStr"/>
+      <c r="H728" t="inlineStr"/>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
+      <c r="L728" t="inlineStr"/>
+      <c r="M728" t="inlineStr"/>
+      <c r="N728" t="inlineStr"/>
+      <c r="O728" t="inlineStr"/>
+      <c r="P728" t="inlineStr"/>
+      <c r="Q728" t="n">
+        <v>9205248.239999998</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr"/>
+      <c r="B729" t="inlineStr"/>
+      <c r="C729" t="inlineStr"/>
+      <c r="D729" t="inlineStr"/>
+      <c r="E729" t="inlineStr"/>
+      <c r="F729" t="inlineStr"/>
+      <c r="G729" t="inlineStr"/>
+      <c r="H729" t="inlineStr"/>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
+      <c r="L729" t="inlineStr"/>
+      <c r="M729" t="inlineStr"/>
+      <c r="N729" t="inlineStr"/>
+      <c r="O729" t="inlineStr"/>
+      <c r="P729" t="inlineStr"/>
+      <c r="Q729" t="n">
+        <v>118726350.26</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr"/>
+      <c r="B730" t="inlineStr"/>
+      <c r="C730" t="inlineStr"/>
+      <c r="D730" t="inlineStr"/>
+      <c r="E730" t="inlineStr"/>
+      <c r="F730" t="inlineStr"/>
+      <c r="G730" t="inlineStr"/>
+      <c r="H730" t="inlineStr"/>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
+      <c r="L730" t="inlineStr"/>
+      <c r="M730" t="inlineStr"/>
+      <c r="N730" t="inlineStr"/>
+      <c r="O730" t="inlineStr"/>
+      <c r="P730" t="inlineStr"/>
+      <c r="Q730" t="n">
+        <v>101832648</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr"/>
+      <c r="B731" t="inlineStr"/>
+      <c r="C731" t="inlineStr"/>
+      <c r="D731" t="inlineStr"/>
+      <c r="E731" t="inlineStr"/>
+      <c r="F731" t="inlineStr"/>
+      <c r="G731" t="inlineStr"/>
+      <c r="H731" t="inlineStr"/>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
+      <c r="L731" t="inlineStr"/>
+      <c r="M731" t="inlineStr"/>
+      <c r="N731" t="inlineStr"/>
+      <c r="O731" t="inlineStr"/>
+      <c r="P731" t="inlineStr"/>
+      <c r="Q731" t="n">
+        <v>16893702.26</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr"/>
+      <c r="B732" t="inlineStr"/>
+      <c r="C732" t="inlineStr"/>
+      <c r="D732" t="inlineStr"/>
+      <c r="E732" t="inlineStr"/>
+      <c r="F732" t="inlineStr"/>
+      <c r="G732" t="inlineStr"/>
+      <c r="H732" t="inlineStr"/>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
+      <c r="L732" t="inlineStr"/>
+      <c r="M732" t="inlineStr"/>
+      <c r="N732" t="inlineStr"/>
+      <c r="O732" t="inlineStr"/>
+      <c r="P732" t="inlineStr"/>
+      <c r="Q732" t="n">
+        <v>5530</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr"/>
+      <c r="B733" t="inlineStr"/>
+      <c r="C733" t="inlineStr"/>
+      <c r="D733" t="inlineStr"/>
+      <c r="E733" t="inlineStr"/>
+      <c r="F733" t="inlineStr"/>
+      <c r="G733" t="inlineStr"/>
+      <c r="H733" t="inlineStr"/>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
+      <c r="L733" t="inlineStr"/>
+      <c r="M733" t="inlineStr"/>
+      <c r="N733" t="inlineStr"/>
+      <c r="O733" t="inlineStr"/>
+      <c r="P733" t="inlineStr"/>
+      <c r="Q733" t="n">
+        <v>1409625</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr"/>
+      <c r="B734" t="inlineStr"/>
+      <c r="C734" t="inlineStr"/>
+      <c r="D734" t="inlineStr"/>
+      <c r="E734" t="inlineStr"/>
+      <c r="F734" t="inlineStr"/>
+      <c r="G734" t="inlineStr"/>
+      <c r="H734" t="inlineStr"/>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
+      <c r="L734" t="inlineStr"/>
+      <c r="M734" t="inlineStr"/>
+      <c r="N734" t="inlineStr"/>
+      <c r="O734" t="inlineStr"/>
+      <c r="P734" t="inlineStr"/>
+      <c r="Q734" t="n">
+        <v>1131842826.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
